--- a/documentation/odesc 4p2 documentation/ODESC_4p2 Pinout.xlsx
+++ b/documentation/odesc 4p2 documentation/ODESC_4p2 Pinout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Github_Repos\Furuta-Pendulum\software\documentation\odesc 4p2 documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Github_Repos\Furuta-Pendulum\documentation\odesc 4p2 documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B995DA2-FED5-4773-8F8C-9FA32DF17329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F171F5-6A43-46C2-AAA0-743B954DA105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="8070" windowWidth="24540" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11130" yWindow="4020" windowWidth="24540" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pinout" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
   <si>
     <t>GPIO1</t>
   </si>
@@ -128,9 +128,6 @@
     <t>ENC_B</t>
   </si>
   <si>
-    <t>ENC_Z</t>
-  </si>
-  <si>
     <t>PB4</t>
   </si>
   <si>
@@ -215,15 +212,9 @@
     <t>Top: 10k, Bottom, 1K</t>
   </si>
   <si>
-    <t>USB_DM</t>
-  </si>
-  <si>
     <t>PA11</t>
   </si>
   <si>
-    <t>USB_DP</t>
-  </si>
-  <si>
     <t>PA12</t>
   </si>
   <si>
@@ -266,13 +257,28 @@
     <t>Use as Uart4 Rx</t>
   </si>
   <si>
-    <t>usart CTS</t>
-  </si>
-  <si>
-    <t>usart rts</t>
-  </si>
-  <si>
     <t>TIM1</t>
+  </si>
+  <si>
+    <t>not going to be used</t>
+  </si>
+  <si>
+    <t>We're not going to use this as ENC_Z but the name will reflect the silkscreen label on the board</t>
+  </si>
+  <si>
+    <t>ENC_Z__GPIO5</t>
+  </si>
+  <si>
+    <t>These are not connected to the MCU in the Odrive 3.5 schematic</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Respective Peripheral</t>
+  </si>
+  <si>
+    <t>UART4</t>
   </si>
 </sst>
 </file>
@@ -314,8 +320,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,34 +608,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:N51"/>
+  <dimension ref="C5:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -632,12 +647,12 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -646,18 +661,12 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -666,18 +675,18 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -686,507 +695,432 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="M10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="G13" t="s">
-        <v>72</v>
-      </c>
-      <c r="N13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
       <c r="G14" t="s">
-        <v>72</v>
-      </c>
-      <c r="N14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
         <v>63</v>
       </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" t="s">
-        <v>37</v>
-      </c>
-      <c r="N15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="M16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="M19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="45" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
-      </c>
-      <c r="M25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="M28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="M31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
-      <c r="M32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F32" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" t="s">
-        <v>72</v>
-      </c>
-      <c r="M35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
-      </c>
-      <c r="H38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="G38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" t="s">
-        <v>72</v>
-      </c>
-      <c r="H39" t="s">
-        <v>78</v>
-      </c>
-      <c r="M39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="G39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H40" t="s">
-        <v>78</v>
-      </c>
-      <c r="M40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="G40" t="s">
+        <v>69</v>
+      </c>
+      <c r="I40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" t="s">
-        <v>72</v>
-      </c>
-      <c r="H41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="M42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G41" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
-      </c>
-      <c r="M43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s">
         <v>51</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" t="s">
         <v>52</v>
       </c>
-      <c r="F46" t="s">
+      <c r="E47" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="G51" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F32:F33"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/documentation/odesc 4p2 documentation/ODESC_4p2 Pinout.xlsx
+++ b/documentation/odesc 4p2 documentation/ODESC_4p2 Pinout.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Github_Repos\Furuta-Pendulum\documentation\odesc 4p2 documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F171F5-6A43-46C2-AAA0-743B954DA105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346B6A7D-6E36-4FD5-90E5-478332EDC729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11130" yWindow="4020" windowWidth="24540" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pinout" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -610,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C5:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,4 +1126,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7AA330-503A-49B9-80A7-BCFDDD29ED15}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>